--- a/donnes.xlsx
+++ b/donnes.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>#Ronde</t>
-  </si>
-  <si>
-    <t>NS1</t>
-  </si>
-  <si>
-    <t>NS2</t>
-  </si>
-  <si>
-    <t>NS3</t>
-  </si>
-  <si>
-    <t>NS4</t>
-  </si>
-  <si>
-    <t>EO1</t>
-  </si>
-  <si>
-    <t>EO2</t>
-  </si>
-  <si>
-    <t>EO3</t>
-  </si>
-  <si>
-    <t>EO4</t>
-  </si>
-  <si>
-    <t>Moyenne NS</t>
-  </si>
-  <si>
-    <t>Min NS</t>
-  </si>
-  <si>
-    <t>Min EO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,188 +420,831 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>#Ronde</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NS1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>NS2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NS3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NS4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EO1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>EO2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EO3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EO4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Moyenne NS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Min NS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Min EO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>110</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>120</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-110</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" t="n">
+        <v>120</v>
+      </c>
+      <c r="E3" t="n">
+        <v>110</v>
+      </c>
+      <c r="F3" t="n">
+        <v>120</v>
+      </c>
+      <c r="G3" t="n">
+        <v>110</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-120</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-110</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-110</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-120</v>
+      </c>
+      <c r="L3" t="n">
+        <v>115</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" t="n">
+        <v>240</v>
+      </c>
+      <c r="E4" t="n">
+        <v>240</v>
+      </c>
+      <c r="F4" t="n">
+        <v>480</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-180</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-240</v>
+      </c>
+      <c r="I4" t="n">
+        <v>180</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-240</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-480</v>
+      </c>
+      <c r="L4" t="n">
+        <v>195</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" t="n">
+        <v>130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-110</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-80</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-110</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-130</v>
+      </c>
+      <c r="L5" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-32.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D6" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H6" t="n">
+        <v>120</v>
+      </c>
+      <c r="I6" t="n">
+        <v>120</v>
+      </c>
+      <c r="J6" t="n">
+        <v>120</v>
+      </c>
+      <c r="K6" t="n">
+        <v>120</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F7" t="n">
+        <v>110</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H7" t="n">
+        <v>110</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-120</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-110</v>
+      </c>
+      <c r="K7" t="n">
+        <v>120</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D8" t="n">
+        <v>-90</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-130</v>
+      </c>
+      <c r="H8" t="n">
+        <v>130</v>
+      </c>
+      <c r="I8" t="n">
+        <v>90</v>
+      </c>
+      <c r="J8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K8" t="n">
+        <v>120</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-112.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D9" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-90</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-90</v>
+      </c>
+      <c r="H9" t="n">
+        <v>90</v>
+      </c>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" t="n">
+        <v>110</v>
+      </c>
+      <c r="K9" t="n">
+        <v>90</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-92.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G10" t="n">
+        <v>120</v>
+      </c>
+      <c r="H10" t="n">
+        <v>120</v>
+      </c>
+      <c r="I10" t="n">
+        <v>120</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-60</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D11" t="n">
+        <v>130</v>
+      </c>
+      <c r="E11" t="n">
+        <v>110</v>
+      </c>
+      <c r="F11" t="n">
+        <v>120</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-120</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-130</v>
+      </c>
+      <c r="J11" t="n">
+        <v>120</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-130</v>
+      </c>
+      <c r="L11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-32.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="D12" t="n">
+        <v>120</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>110</v>
+      </c>
+      <c r="G12" t="n">
+        <v>110</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-110</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-120</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-110</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-120</v>
+      </c>
+      <c r="L12" t="n">
+        <v>60</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-130</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G13" t="n">
+        <v>130</v>
+      </c>
+      <c r="H13" t="n">
+        <v>120</v>
+      </c>
+      <c r="I13" t="n">
+        <v>130</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-130</v>
+      </c>
+      <c r="K13" t="n">
+        <v>130</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-32.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-90</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H14" t="n">
+        <v>90</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" t="n">
+        <v>120</v>
+      </c>
+      <c r="K14" t="n">
+        <v>110</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-102.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N14" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-140</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-140</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-250</v>
+      </c>
+      <c r="H15" t="n">
+        <v>140</v>
+      </c>
+      <c r="I15" t="n">
+        <v>140</v>
+      </c>
+      <c r="J15" t="n">
+        <v>120</v>
+      </c>
+      <c r="K15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-162.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-110</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-90</v>
+      </c>
+      <c r="H16" t="n">
+        <v>110</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-90</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-80</v>
+      </c>
+      <c r="K16" t="n">
+        <v>90</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-130</v>
+      </c>
+      <c r="E17" t="n">
+        <v>140</v>
+      </c>
+      <c r="F17" t="n">
+        <v>140</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-130</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-140</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-140</v>
+      </c>
+      <c r="J17" t="n">
+        <v>130</v>
+      </c>
+      <c r="K17" t="n">
+        <v>130</v>
+      </c>
+      <c r="L17" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
+      <c r="M17" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>110</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-900</v>
+      </c>
+      <c r="H18" t="n">
+        <v>90</v>
+      </c>
+      <c r="I18" t="n">
+        <v>280</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-280</v>
+      </c>
+      <c r="K18" t="n">
+        <v>190</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>